--- a/doc/Register_commands.xlsx
+++ b/doc/Register_commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATHENA_X-IFU\Documents\Noemie2020\solution_commande\ras-a75-fw\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurent/work/work_vhdl/RAS/ras-a75-fw/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5427EC-F268-4995-A2A6-D4CA9115ECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC34211D-8044-9943-A14E-890A92CFE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34780" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Memory Map" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="137">
   <si>
     <t>Address</t>
   </si>
@@ -436,9 +436,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Version : ras-a75-fw 2.1.1</t>
-  </si>
-  <si>
     <t>Note :</t>
   </si>
   <si>
@@ -469,12 +466,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -483,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,31 +708,52 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -753,56 +767,35 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1996,46 +1989,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX150"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O68" sqref="O68:AR73"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU78" sqref="AU78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="13.9" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="2.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="2.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
-    <col min="18" max="49" width="3.42578125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="30.85546875" style="1" customWidth="1"/>
-    <col min="51" max="51" width="3.42578125" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="3.42578125" style="1"/>
+    <col min="1" max="4" width="2.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="2.796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.19921875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.3984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.796875" style="1" customWidth="1"/>
+    <col min="18" max="49" width="3.3984375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="30.796875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="3.3984375" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="3.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+    <row r="1" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2054,45 +2047,45 @@
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="39"/>
-      <c r="AS1" s="39"/>
-      <c r="AT1" s="39"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="39"/>
-      <c r="AW1" s="39"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
       <c r="AX1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:50" ht="14.65" customHeight="1">
+    <row r="2" spans="1:50" ht="14.75" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -2230,47 +2223,47 @@
       </c>
       <c r="AX2" s="4"/>
     </row>
-    <row r="3" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A3" s="42">
-        <v>0</v>
-      </c>
-      <c r="B3" s="42">
-        <v>0</v>
-      </c>
-      <c r="C3" s="42">
-        <v>0</v>
-      </c>
-      <c r="D3" s="42">
-        <v>0</v>
-      </c>
-      <c r="E3" s="42">
-        <v>0</v>
-      </c>
-      <c r="F3" s="42">
-        <v>0</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="44" t="s">
+    <row r="3" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A3" s="43">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43">
+        <v>0</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0</v>
+      </c>
+      <c r="H3" s="43">
+        <v>0</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="42">
-        <v>0</v>
-      </c>
-      <c r="M3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="43">
+        <v>0</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="25" t="s">
@@ -2320,21 +2313,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="41"/>
+    <row r="4" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="48"/>
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2382,21 +2375,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="41"/>
+    <row r="5" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2444,21 +2437,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="41"/>
+    <row r="6" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="48"/>
       <c r="O6" s="10" t="s">
         <v>20</v>
       </c>
@@ -2506,21 +2499,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="41"/>
+    <row r="7" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="48"/>
       <c r="O7" s="10" t="s">
         <v>21</v>
       </c>
@@ -2568,21 +2561,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="41"/>
+    <row r="8" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="10" t="s">
         <v>23</v>
       </c>
@@ -2630,21 +2623,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="41"/>
+    <row r="9" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="10" t="s">
         <v>25</v>
       </c>
@@ -2692,21 +2685,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="41"/>
+    <row r="10" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2754,21 +2747,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="41"/>
+    <row r="11" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="48"/>
       <c r="O11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2816,21 +2809,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="41"/>
+    <row r="12" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="48"/>
       <c r="O12" s="10" t="s">
         <v>31</v>
       </c>
@@ -2878,21 +2871,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="41"/>
+    <row r="13" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="10" t="s">
         <v>32</v>
       </c>
@@ -2940,21 +2933,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="41"/>
+    <row r="14" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="48"/>
       <c r="O14" s="10" t="s">
         <v>33</v>
       </c>
@@ -3002,21 +2995,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="41"/>
+    <row r="15" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="48"/>
       <c r="O15" s="18" t="s">
         <v>34</v>
       </c>
@@ -3070,21 +3063,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="41"/>
+    <row r="16" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="48"/>
       <c r="O16" s="7" t="s">
         <v>36</v>
       </c>
@@ -3162,45 +3155,45 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A17" s="42">
-        <v>0</v>
-      </c>
-      <c r="B17" s="42">
-        <v>0</v>
-      </c>
-      <c r="C17" s="42">
-        <v>0</v>
-      </c>
-      <c r="D17" s="42">
-        <v>0</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0</v>
-      </c>
-      <c r="F17" s="42">
-        <v>0</v>
-      </c>
-      <c r="G17" s="42">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42">
+    <row r="17" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A17" s="43">
+        <v>0</v>
+      </c>
+      <c r="B17" s="43">
+        <v>0</v>
+      </c>
+      <c r="C17" s="43">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0</v>
+      </c>
+      <c r="G17" s="43">
+        <v>0</v>
+      </c>
+      <c r="H17" s="43">
         <v>1</v>
       </c>
-      <c r="I17" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="44" t="s">
+      <c r="I17" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="43">
         <v>1</v>
       </c>
-      <c r="M17" s="43"/>
-      <c r="N17" s="40" t="s">
+      <c r="M17" s="42"/>
+      <c r="N17" s="47" t="s">
         <v>38</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -3252,21 +3245,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="41"/>
+    <row r="18" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="48"/>
       <c r="O18" s="18" t="s">
         <v>39</v>
       </c>
@@ -3324,97 +3317,97 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="46" t="s">
+    <row r="19" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="47">
+      <c r="P19" s="35">
         <v>8</v>
       </c>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG19" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="50" t="s">
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AM19" s="37"/>
+      <c r="AN19" s="37"/>
+      <c r="AO19" s="37"/>
+      <c r="AP19" s="37"/>
+      <c r="AQ19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="37"/>
+      <c r="AT19" s="37"/>
+      <c r="AU19" s="37"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="37"/>
+      <c r="AX19" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="41"/>
+    <row r="20" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="48"/>
       <c r="O20" s="10" t="s">
         <v>33</v>
       </c>
@@ -3476,21 +3469,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="41"/>
+    <row r="21" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="48"/>
       <c r="O21" s="14" t="s">
         <v>41</v>
       </c>
@@ -3552,7 +3545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="14.65" customHeight="1">
+    <row r="22" spans="1:50" ht="14.75" customHeight="1">
       <c r="A22" s="5">
         <v>0</v>
       </c>
@@ -3589,7 +3582,7 @@
       <c r="L22" s="5">
         <v>2</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="42"/>
       <c r="N22" s="7" t="s">
         <v>43</v>
       </c>
@@ -3702,45 +3695,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A23" s="42">
-        <v>0</v>
-      </c>
-      <c r="B23" s="42">
-        <v>0</v>
-      </c>
-      <c r="C23" s="42">
-        <v>0</v>
-      </c>
-      <c r="D23" s="42">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0</v>
-      </c>
-      <c r="F23" s="42">
-        <v>0</v>
-      </c>
-      <c r="G23" s="42">
+    <row r="23" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A23" s="43">
+        <v>0</v>
+      </c>
+      <c r="B23" s="43">
+        <v>0</v>
+      </c>
+      <c r="C23" s="43">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <v>0</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0</v>
+      </c>
+      <c r="G23" s="43">
         <v>1</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="43">
         <v>1</v>
       </c>
-      <c r="I23" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="44" t="s">
+      <c r="I23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="43">
         <v>3</v>
       </c>
-      <c r="M23" s="43"/>
-      <c r="N23" s="45" t="s">
+      <c r="M23" s="42"/>
+      <c r="N23" s="44" t="s">
         <v>47</v>
       </c>
       <c r="O23" s="7" t="s">
@@ -3836,21 +3829,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
+    <row r="24" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="10" t="s">
         <v>44</v>
       </c>
@@ -3912,7 +3905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="14.65" customHeight="1">
+    <row r="25" spans="1:50" ht="14.75" customHeight="1">
       <c r="A25" s="5">
         <v>0</v>
       </c>
@@ -3949,7 +3942,7 @@
       <c r="L25" s="5">
         <v>4</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="43">
         <v>0</v>
       </c>
       <c r="N25" s="14" t="s">
@@ -4064,45 +4057,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A26" s="42">
-        <v>0</v>
-      </c>
-      <c r="B26" s="42">
-        <v>0</v>
-      </c>
-      <c r="C26" s="42">
-        <v>0</v>
-      </c>
-      <c r="D26" s="42">
-        <v>0</v>
-      </c>
-      <c r="E26" s="42">
-        <v>0</v>
-      </c>
-      <c r="F26" s="42">
+    <row r="26" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A26" s="43">
+        <v>0</v>
+      </c>
+      <c r="B26" s="43">
+        <v>0</v>
+      </c>
+      <c r="C26" s="43">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
         <v>1</v>
       </c>
-      <c r="G26" s="42">
-        <v>0</v>
-      </c>
-      <c r="H26" s="42">
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="43">
         <v>1</v>
       </c>
-      <c r="I26" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="44" t="s">
+      <c r="I26" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="43">
         <v>5</v>
       </c>
-      <c r="M26" s="43"/>
-      <c r="N26" s="40" t="s">
+      <c r="M26" s="42"/>
+      <c r="N26" s="47" t="s">
         <v>51</v>
       </c>
       <c r="O26" s="14" t="s">
@@ -4198,21 +4191,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="41"/>
+    <row r="27" spans="1:50" ht="14.75" customHeight="1">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="18" t="s">
         <v>44</v>
       </c>
@@ -4274,7 +4267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="14.65" customHeight="1">
+    <row r="28" spans="1:50" ht="14.75" customHeight="1">
       <c r="A28" s="5">
         <v>0</v>
       </c>
@@ -4311,7 +4304,7 @@
       <c r="L28" s="5">
         <v>6</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="49">
         <v>1</v>
       </c>
       <c r="N28" s="14" t="s">
@@ -4426,7 +4419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="14.65" customHeight="1">
+    <row r="29" spans="1:50" ht="14.75" customHeight="1">
       <c r="A29" s="5">
         <v>0</v>
       </c>
@@ -4463,7 +4456,7 @@
       <c r="L29" s="5">
         <v>7</v>
       </c>
-      <c r="M29" s="37"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="14" t="s">
         <v>55</v>
       </c>
@@ -4528,7 +4521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="14.65" customHeight="1">
+    <row r="30" spans="1:50" ht="14.75" customHeight="1">
       <c r="A30" s="5">
         <v>0</v>
       </c>
@@ -4565,7 +4558,7 @@
       <c r="L30" s="5">
         <v>8</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="49">
         <v>2</v>
       </c>
       <c r="N30" s="14" t="s">
@@ -4680,7 +4673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="14.65" customHeight="1">
+    <row r="31" spans="1:50" ht="14.75" customHeight="1">
       <c r="A31" s="5">
         <v>0</v>
       </c>
@@ -4717,7 +4710,7 @@
       <c r="L31" s="5">
         <v>9</v>
       </c>
-      <c r="M31" s="37"/>
+      <c r="M31" s="50"/>
       <c r="N31" s="14" t="s">
         <v>59</v>
       </c>
@@ -4782,7 +4775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="14.65" customHeight="1">
+    <row r="32" spans="1:50" ht="14.75" customHeight="1">
       <c r="A32" s="5">
         <v>0</v>
       </c>
@@ -4819,7 +4812,7 @@
       <c r="L32" s="5">
         <v>10</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="49">
         <v>3</v>
       </c>
       <c r="N32" s="14" t="s">
@@ -4934,7 +4927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="14.65" customHeight="1">
+    <row r="33" spans="1:50" ht="14.75" customHeight="1">
       <c r="A33" s="5">
         <v>0</v>
       </c>
@@ -4971,7 +4964,7 @@
       <c r="L33" s="5">
         <v>11</v>
       </c>
-      <c r="M33" s="37"/>
+      <c r="M33" s="50"/>
       <c r="N33" s="14" t="s">
         <v>63</v>
       </c>
@@ -5036,7 +5029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="14.65" customHeight="1">
+    <row r="34" spans="1:50" ht="14.75" customHeight="1">
       <c r="A34" s="5">
         <v>0</v>
       </c>
@@ -5073,7 +5066,7 @@
       <c r="L34" s="5">
         <v>12</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="49">
         <v>4</v>
       </c>
       <c r="N34" s="14" t="s">
@@ -5188,7 +5181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="14.65" customHeight="1">
+    <row r="35" spans="1:50" ht="14.75" customHeight="1">
       <c r="A35" s="5">
         <v>0</v>
       </c>
@@ -5225,7 +5218,7 @@
       <c r="L35" s="5">
         <v>13</v>
       </c>
-      <c r="M35" s="37"/>
+      <c r="M35" s="50"/>
       <c r="N35" s="14" t="s">
         <v>67</v>
       </c>
@@ -5290,7 +5283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="14.65" customHeight="1">
+    <row r="36" spans="1:50" ht="14.75" customHeight="1">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -5327,7 +5320,7 @@
       <c r="L36" s="5">
         <v>14</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="49">
         <v>5</v>
       </c>
       <c r="N36" s="14" t="s">
@@ -5442,7 +5435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="14.65" customHeight="1">
+    <row r="37" spans="1:50" ht="14.75" customHeight="1">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -5479,7 +5472,7 @@
       <c r="L37" s="5">
         <v>15</v>
       </c>
-      <c r="M37" s="37"/>
+      <c r="M37" s="50"/>
       <c r="N37" s="14" t="s">
         <v>71</v>
       </c>
@@ -5544,7 +5537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="14.65" customHeight="1">
+    <row r="38" spans="1:50" ht="14.75" customHeight="1">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -5581,7 +5574,7 @@
       <c r="L38" s="5">
         <v>16</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="49">
         <v>6</v>
       </c>
       <c r="N38" s="14" t="s">
@@ -5696,7 +5689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:50" ht="14.65" customHeight="1">
+    <row r="39" spans="1:50" ht="14.75" customHeight="1">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -5733,7 +5726,7 @@
       <c r="L39" s="5">
         <v>17</v>
       </c>
-      <c r="M39" s="37"/>
+      <c r="M39" s="50"/>
       <c r="N39" s="14" t="s">
         <v>75</v>
       </c>
@@ -5798,7 +5791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:50" ht="14.65" customHeight="1">
+    <row r="40" spans="1:50" ht="14.75" customHeight="1">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -5835,7 +5828,7 @@
       <c r="L40" s="5">
         <v>18</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40" s="49">
         <v>7</v>
       </c>
       <c r="N40" s="14" t="s">
@@ -5950,7 +5943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="14.65" customHeight="1">
+    <row r="41" spans="1:50" ht="14.75" customHeight="1">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -5987,7 +5980,7 @@
       <c r="L41" s="5">
         <v>19</v>
       </c>
-      <c r="M41" s="37"/>
+      <c r="M41" s="50"/>
       <c r="N41" s="14" t="s">
         <v>79</v>
       </c>
@@ -6052,7 +6045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="14.65" customHeight="1">
+    <row r="42" spans="1:50" ht="14.75" customHeight="1">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -6089,7 +6082,7 @@
       <c r="L42" s="5">
         <v>20</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42" s="49">
         <v>8</v>
       </c>
       <c r="N42" s="14" t="s">
@@ -6204,7 +6197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="14.65" customHeight="1">
+    <row r="43" spans="1:50" ht="14.75" customHeight="1">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -6241,7 +6234,7 @@
       <c r="L43" s="5">
         <v>21</v>
       </c>
-      <c r="M43" s="37"/>
+      <c r="M43" s="50"/>
       <c r="N43" s="14" t="s">
         <v>83</v>
       </c>
@@ -6306,7 +6299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:50" ht="14.65" customHeight="1">
+    <row r="44" spans="1:50" ht="14.75" customHeight="1">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -6343,7 +6336,7 @@
       <c r="L44" s="5">
         <v>22</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="49">
         <v>9</v>
       </c>
       <c r="N44" s="14" t="s">
@@ -6458,7 +6451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:50" ht="14.65" customHeight="1">
+    <row r="45" spans="1:50" ht="14.75" customHeight="1">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -6495,7 +6488,7 @@
       <c r="L45" s="5">
         <v>23</v>
       </c>
-      <c r="M45" s="37"/>
+      <c r="M45" s="50"/>
       <c r="N45" s="14" t="s">
         <v>87</v>
       </c>
@@ -6560,7 +6553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:50" ht="14.65" customHeight="1">
+    <row r="46" spans="1:50" ht="14.75" customHeight="1">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -6597,7 +6590,7 @@
       <c r="L46" s="5">
         <v>24</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46" s="49">
         <v>10</v>
       </c>
       <c r="N46" s="14" t="s">
@@ -6712,7 +6705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="14.65" customHeight="1">
+    <row r="47" spans="1:50" ht="14.75" customHeight="1">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -6749,7 +6742,7 @@
       <c r="L47" s="5">
         <v>25</v>
       </c>
-      <c r="M47" s="37"/>
+      <c r="M47" s="50"/>
       <c r="N47" s="14" t="s">
         <v>91</v>
       </c>
@@ -6814,7 +6807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:50" ht="14.65" customHeight="1">
+    <row r="48" spans="1:50" ht="14.75" customHeight="1">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -6851,7 +6844,7 @@
       <c r="L48" s="5">
         <v>26</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="49">
         <v>11</v>
       </c>
       <c r="N48" s="14" t="s">
@@ -6966,7 +6959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:50" ht="14.65" customHeight="1">
+    <row r="49" spans="1:50" ht="14.75" customHeight="1">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -7003,7 +6996,7 @@
       <c r="L49" s="5">
         <v>27</v>
       </c>
-      <c r="M49" s="37"/>
+      <c r="M49" s="50"/>
       <c r="N49" s="14" t="s">
         <v>95</v>
       </c>
@@ -7068,7 +7061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:50" ht="14.65" customHeight="1">
+    <row r="50" spans="1:50" ht="14.75" customHeight="1">
       <c r="A50" s="5">
         <v>0</v>
       </c>
@@ -7105,7 +7098,7 @@
       <c r="L50" s="5">
         <v>28</v>
       </c>
-      <c r="M50" s="36">
+      <c r="M50" s="49">
         <v>12</v>
       </c>
       <c r="N50" s="14" t="s">
@@ -7220,7 +7213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="14.65" customHeight="1">
+    <row r="51" spans="1:50" ht="14.75" customHeight="1">
       <c r="A51" s="5">
         <v>0</v>
       </c>
@@ -7257,7 +7250,7 @@
       <c r="L51" s="5">
         <v>29</v>
       </c>
-      <c r="M51" s="37"/>
+      <c r="M51" s="50"/>
       <c r="N51" s="14" t="s">
         <v>99</v>
       </c>
@@ -7322,7 +7315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="14.65" customHeight="1">
+    <row r="52" spans="1:50" ht="14.75" customHeight="1">
       <c r="A52" s="5">
         <v>0</v>
       </c>
@@ -7359,122 +7352,122 @@
       <c r="L52" s="5">
         <v>30</v>
       </c>
-      <c r="M52" s="36">
+      <c r="M52" s="49">
         <v>13</v>
       </c>
-      <c r="N52" s="50" t="s">
+      <c r="N52" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="O52" s="46" t="s">
+      <c r="O52" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P52" s="49">
+      <c r="P52" s="37">
         <v>32</v>
       </c>
-      <c r="Q52" s="48" t="s">
+      <c r="Q52" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="T52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="U52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="V52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="W52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="X52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW52" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX52" s="50" t="s">
+      <c r="R52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW52" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX52" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="14.65" customHeight="1">
+    <row r="53" spans="1:50" ht="14.75" customHeight="1">
       <c r="A53" s="5">
         <v>0</v>
       </c>
@@ -7511,72 +7504,72 @@
       <c r="L53" s="5">
         <v>31</v>
       </c>
-      <c r="M53" s="37"/>
-      <c r="N53" s="50" t="s">
+      <c r="M53" s="50"/>
+      <c r="N53" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="O53" s="46" t="s">
+      <c r="O53" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P53" s="49">
+      <c r="P53" s="37">
         <v>8</v>
       </c>
-      <c r="Q53" s="48" t="s">
+      <c r="Q53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R53" s="49"/>
-      <c r="S53" s="49"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="49"/>
-      <c r="V53" s="49"/>
-      <c r="W53" s="49"/>
-      <c r="X53" s="49"/>
-      <c r="Y53" s="49"/>
-      <c r="Z53" s="49"/>
-      <c r="AA53" s="49"/>
-      <c r="AB53" s="49"/>
-      <c r="AC53" s="49"/>
-      <c r="AD53" s="49"/>
-      <c r="AE53" s="49"/>
-      <c r="AF53" s="49"/>
-      <c r="AG53" s="49"/>
-      <c r="AH53" s="49"/>
-      <c r="AI53" s="49"/>
-      <c r="AJ53" s="49"/>
-      <c r="AK53" s="49"/>
-      <c r="AL53" s="49"/>
-      <c r="AM53" s="49"/>
-      <c r="AN53" s="49"/>
-      <c r="AO53" s="49"/>
-      <c r="AP53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW53" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX53" s="50" t="s">
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+      <c r="AA53" s="37"/>
+      <c r="AB53" s="37"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="37"/>
+      <c r="AE53" s="37"/>
+      <c r="AF53" s="37"/>
+      <c r="AG53" s="37"/>
+      <c r="AH53" s="37"/>
+      <c r="AI53" s="37"/>
+      <c r="AJ53" s="37"/>
+      <c r="AK53" s="37"/>
+      <c r="AL53" s="37"/>
+      <c r="AM53" s="37"/>
+      <c r="AN53" s="37"/>
+      <c r="AO53" s="37"/>
+      <c r="AP53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW53" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX53" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:50" ht="14.65" customHeight="1">
+    <row r="54" spans="1:50" ht="14.75" customHeight="1">
       <c r="A54" s="5">
         <v>0</v>
       </c>
@@ -7613,122 +7606,122 @@
       <c r="L54" s="5">
         <v>32</v>
       </c>
-      <c r="M54" s="36">
+      <c r="M54" s="49">
         <v>14</v>
       </c>
-      <c r="N54" s="50" t="s">
+      <c r="N54" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="O54" s="46" t="s">
+      <c r="O54" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P54" s="49">
+      <c r="P54" s="37">
         <v>32</v>
       </c>
-      <c r="Q54" s="48" t="s">
+      <c r="Q54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="T54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="U54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="V54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="W54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="X54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX54" s="50" t="s">
+      <c r="R54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW54" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX54" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:50" ht="14.65" customHeight="1">
+    <row r="55" spans="1:50" ht="14.75" customHeight="1">
       <c r="A55" s="5">
         <v>0</v>
       </c>
@@ -7765,72 +7758,72 @@
       <c r="L55" s="5">
         <v>33</v>
       </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="50" t="s">
+      <c r="M55" s="50"/>
+      <c r="N55" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="O55" s="46" t="s">
+      <c r="O55" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P55" s="49">
+      <c r="P55" s="37">
         <v>8</v>
       </c>
-      <c r="Q55" s="48" t="s">
+      <c r="Q55" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R55" s="49"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="49"/>
-      <c r="V55" s="49"/>
-      <c r="W55" s="49"/>
-      <c r="X55" s="49"/>
-      <c r="Y55" s="49"/>
-      <c r="Z55" s="49"/>
-      <c r="AA55" s="49"/>
-      <c r="AB55" s="49"/>
-      <c r="AC55" s="49"/>
-      <c r="AD55" s="49"/>
-      <c r="AE55" s="49"/>
-      <c r="AF55" s="49"/>
-      <c r="AG55" s="49"/>
-      <c r="AH55" s="49"/>
-      <c r="AI55" s="49"/>
-      <c r="AJ55" s="49"/>
-      <c r="AK55" s="49"/>
-      <c r="AL55" s="49"/>
-      <c r="AM55" s="49"/>
-      <c r="AN55" s="49"/>
-      <c r="AO55" s="49"/>
-      <c r="AP55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW55" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX55" s="50" t="s">
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="37"/>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="37"/>
+      <c r="AM55" s="37"/>
+      <c r="AN55" s="37"/>
+      <c r="AO55" s="37"/>
+      <c r="AP55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW55" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX55" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:50" ht="14.65" customHeight="1">
+    <row r="56" spans="1:50" ht="14.75" customHeight="1">
       <c r="A56" s="5">
         <v>0</v>
       </c>
@@ -7867,122 +7860,122 @@
       <c r="L56" s="5">
         <v>34</v>
       </c>
-      <c r="M56" s="36">
-        <v>15</v>
-      </c>
-      <c r="N56" s="50" t="s">
+      <c r="M56" s="49">
+        <v>15</v>
+      </c>
+      <c r="N56" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="O56" s="46" t="s">
+      <c r="O56" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P56" s="49">
+      <c r="P56" s="37">
         <v>32</v>
       </c>
-      <c r="Q56" s="48" t="s">
+      <c r="Q56" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="S56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="T56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="U56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="V56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="W56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="X56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW56" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX56" s="50" t="s">
+      <c r="R56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="S56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="U56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="V56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW56" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX56" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="14.65" customHeight="1">
+    <row r="57" spans="1:50" ht="14.75" customHeight="1">
       <c r="A57" s="5">
         <v>0</v>
       </c>
@@ -8019,72 +8012,72 @@
       <c r="L57" s="5">
         <v>35</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="50" t="s">
+      <c r="M57" s="50"/>
+      <c r="N57" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="O57" s="46" t="s">
+      <c r="O57" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P57" s="49">
+      <c r="P57" s="37">
         <v>8</v>
       </c>
-      <c r="Q57" s="48" t="s">
+      <c r="Q57" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R57" s="49"/>
-      <c r="S57" s="49"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
-      <c r="X57" s="49"/>
-      <c r="Y57" s="49"/>
-      <c r="Z57" s="49"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="49"/>
-      <c r="AC57" s="49"/>
-      <c r="AD57" s="49"/>
-      <c r="AE57" s="49"/>
-      <c r="AF57" s="49"/>
-      <c r="AG57" s="49"/>
-      <c r="AH57" s="49"/>
-      <c r="AI57" s="49"/>
-      <c r="AJ57" s="49"/>
-      <c r="AK57" s="49"/>
-      <c r="AL57" s="49"/>
-      <c r="AM57" s="49"/>
-      <c r="AN57" s="49"/>
-      <c r="AO57" s="49"/>
-      <c r="AP57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW57" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX57" s="50" t="s">
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+      <c r="AA57" s="37"/>
+      <c r="AB57" s="37"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="37"/>
+      <c r="AE57" s="37"/>
+      <c r="AF57" s="37"/>
+      <c r="AG57" s="37"/>
+      <c r="AH57" s="37"/>
+      <c r="AI57" s="37"/>
+      <c r="AJ57" s="37"/>
+      <c r="AK57" s="37"/>
+      <c r="AL57" s="37"/>
+      <c r="AM57" s="37"/>
+      <c r="AN57" s="37"/>
+      <c r="AO57" s="37"/>
+      <c r="AP57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW57" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX57" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="14.65" customHeight="1">
+    <row r="58" spans="1:50" ht="14.75" customHeight="1">
       <c r="A58" s="5">
         <v>0</v>
       </c>
@@ -8122,69 +8115,69 @@
         <v>36</v>
       </c>
       <c r="M58" s="8"/>
-      <c r="N58" s="33" t="s">
+      <c r="N58" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="O58" s="34" t="s">
+      <c r="O58" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="P58" s="31">
+      <c r="P58" s="29">
         <v>7</v>
       </c>
-      <c r="Q58" s="32" t="s">
+      <c r="Q58" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="34"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="34"/>
-      <c r="AK58" s="34"/>
-      <c r="AL58" s="34"/>
-      <c r="AM58" s="34"/>
-      <c r="AN58" s="34"/>
-      <c r="AO58" s="34"/>
-      <c r="AP58" s="31"/>
-      <c r="AQ58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW58" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX58" s="34" t="s">
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="32"/>
+      <c r="AF58" s="32"/>
+      <c r="AG58" s="32"/>
+      <c r="AH58" s="32"/>
+      <c r="AI58" s="32"/>
+      <c r="AJ58" s="32"/>
+      <c r="AK58" s="32"/>
+      <c r="AL58" s="32"/>
+      <c r="AM58" s="32"/>
+      <c r="AN58" s="32"/>
+      <c r="AO58" s="32"/>
+      <c r="AP58" s="29"/>
+      <c r="AQ58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW58" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX58" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:50" ht="14.65" customHeight="1">
+    <row r="59" spans="1:50" ht="14.75" customHeight="1">
       <c r="A59" s="5">
         <v>0</v>
       </c>
@@ -8222,57 +8215,57 @@
         <v>37</v>
       </c>
       <c r="M59" s="8"/>
-      <c r="N59" s="51" t="s">
+      <c r="N59" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="O59" s="52" t="s">
+      <c r="O59" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="P59" s="49">
+      <c r="P59" s="37">
         <v>1</v>
       </c>
-      <c r="Q59" s="49" t="s">
+      <c r="Q59" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R59" s="49"/>
-      <c r="S59" s="49"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="49"/>
-      <c r="V59" s="49"/>
-      <c r="W59" s="49"/>
-      <c r="X59" s="49"/>
-      <c r="Y59" s="49"/>
-      <c r="Z59" s="49"/>
-      <c r="AA59" s="49"/>
-      <c r="AB59" s="49"/>
-      <c r="AC59" s="49"/>
-      <c r="AD59" s="49"/>
-      <c r="AE59" s="49"/>
-      <c r="AF59" s="49"/>
-      <c r="AG59" s="49"/>
-      <c r="AH59" s="49"/>
-      <c r="AI59" s="49"/>
-      <c r="AJ59" s="49"/>
-      <c r="AK59" s="49"/>
-      <c r="AL59" s="49"/>
-      <c r="AM59" s="49"/>
-      <c r="AN59" s="49"/>
-      <c r="AO59" s="49"/>
-      <c r="AP59" s="49"/>
-      <c r="AQ59" s="49"/>
-      <c r="AR59" s="49"/>
-      <c r="AS59" s="49"/>
-      <c r="AT59" s="49"/>
-      <c r="AU59" s="49"/>
-      <c r="AV59" s="49"/>
-      <c r="AW59" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX59" s="51" t="s">
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+      <c r="AA59" s="37"/>
+      <c r="AB59" s="37"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
+      <c r="AH59" s="37"/>
+      <c r="AI59" s="37"/>
+      <c r="AJ59" s="37"/>
+      <c r="AK59" s="37"/>
+      <c r="AL59" s="37"/>
+      <c r="AM59" s="37"/>
+      <c r="AN59" s="37"/>
+      <c r="AO59" s="37"/>
+      <c r="AP59" s="37"/>
+      <c r="AQ59" s="37"/>
+      <c r="AR59" s="37"/>
+      <c r="AS59" s="37"/>
+      <c r="AT59" s="37"/>
+      <c r="AU59" s="37"/>
+      <c r="AV59" s="37"/>
+      <c r="AW59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX59" s="39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:50" ht="14.65" customHeight="1">
+    <row r="60" spans="1:50" ht="14.75" customHeight="1">
       <c r="A60" s="5">
         <v>0</v>
       </c>
@@ -8310,117 +8303,117 @@
         <v>38</v>
       </c>
       <c r="M60" s="8"/>
-      <c r="N60" s="51" t="s">
+      <c r="N60" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="O60" s="52" t="s">
+      <c r="O60" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="49">
+      <c r="P60" s="37">
         <v>14</v>
       </c>
-      <c r="Q60" s="48" t="s">
+      <c r="Q60" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="S60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="T60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="U60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="X60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI60" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ60" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK60" s="49">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW60" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX60" s="51"/>
-    </row>
-    <row r="61" spans="1:50" ht="14.65" customHeight="1">
+      <c r="R60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI60" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ60" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX60" s="39"/>
+    </row>
+    <row r="61" spans="1:50" ht="14.75" customHeight="1">
       <c r="A61" s="5">
         <v>0</v>
       </c>
@@ -8458,117 +8451,117 @@
         <v>39</v>
       </c>
       <c r="M61" s="8"/>
-      <c r="N61" s="51" t="s">
+      <c r="N61" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="O61" s="52" t="s">
+      <c r="O61" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P61" s="49">
+      <c r="P61" s="37">
         <v>14</v>
       </c>
-      <c r="Q61" s="48" t="s">
+      <c r="Q61" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="S61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="T61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="U61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="X61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI61" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ61" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="49">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW61" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX61" s="51"/>
-    </row>
-    <row r="62" spans="1:50" ht="14.65" customHeight="1">
+      <c r="R61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI61" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ61" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX61" s="39"/>
+    </row>
+    <row r="62" spans="1:50" ht="14.75" customHeight="1">
       <c r="A62" s="5">
         <v>0</v>
       </c>
@@ -8606,117 +8599,117 @@
         <v>40</v>
       </c>
       <c r="M62" s="5"/>
-      <c r="N62" s="51" t="s">
+      <c r="N62" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="O62" s="52" t="s">
+      <c r="O62" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P62" s="49">
+      <c r="P62" s="37">
         <v>14</v>
       </c>
-      <c r="Q62" s="48" t="s">
+      <c r="Q62" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="S62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="T62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="U62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="X62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI62" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ62" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK62" s="49">
-        <v>0</v>
-      </c>
-      <c r="AL62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW62" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX62" s="51"/>
-    </row>
-    <row r="63" spans="1:50" ht="14.65" customHeight="1">
+      <c r="R62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI62" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ62" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW62" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX62" s="39"/>
+    </row>
+    <row r="63" spans="1:50" ht="14.75" customHeight="1">
       <c r="A63" s="5">
         <v>0</v>
       </c>
@@ -8754,117 +8747,117 @@
         <v>41</v>
       </c>
       <c r="M63" s="8"/>
-      <c r="N63" s="51" t="s">
+      <c r="N63" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="O63" s="52" t="s">
+      <c r="O63" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="P63" s="49">
+      <c r="P63" s="37">
         <v>14</v>
       </c>
-      <c r="Q63" s="48" t="s">
+      <c r="Q63" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="S63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="T63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="U63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="X63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI63" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ63" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK63" s="49">
-        <v>0</v>
-      </c>
-      <c r="AL63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW63" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX63" s="51"/>
-    </row>
-    <row r="64" spans="1:50" ht="14.65" customHeight="1">
+      <c r="R63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI63" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ63" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW63" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX63" s="39"/>
+    </row>
+    <row r="64" spans="1:50" ht="14.75" customHeight="1">
       <c r="A64" s="5">
         <v>0</v>
       </c>
@@ -8902,119 +8895,119 @@
         <v>42</v>
       </c>
       <c r="M64" s="5"/>
-      <c r="N64" s="51" t="s">
+      <c r="N64" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="O64" s="52" t="s">
+      <c r="O64" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="P64" s="49">
+      <c r="P64" s="37">
         <v>1</v>
       </c>
-      <c r="Q64" s="48" t="s">
+      <c r="Q64" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="S64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="T64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="U64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="X64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV64" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW64" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX64" s="51" t="s">
+      <c r="R64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV64" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW64" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX64" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:50" ht="14.65" customHeight="1">
+    <row r="65" spans="1:50" ht="14.75" customHeight="1">
       <c r="A65" s="5">
         <v>0</v>
       </c>
@@ -9052,119 +9045,119 @@
         <v>43</v>
       </c>
       <c r="M65" s="5"/>
-      <c r="N65" s="51" t="s">
+      <c r="N65" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="O65" s="52" t="s">
+      <c r="O65" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="P65" s="49">
+      <c r="P65" s="37">
         <v>1</v>
       </c>
-      <c r="Q65" s="48" t="s">
+      <c r="Q65" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="R65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="S65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="T65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="U65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="V65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="W65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="X65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV65" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="AW65" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX65" s="51" t="s">
+      <c r="R65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="T65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="V65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="X65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV65" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW65" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX65" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:50" ht="14.65" customHeight="1">
+    <row r="66" spans="1:50" ht="14.75" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -9216,7 +9209,7 @@
       <c r="AW66" s="8"/>
       <c r="AX66" s="9"/>
     </row>
-    <row r="67" spans="1:50" ht="14.65" customHeight="1">
+    <row r="67" spans="1:50" ht="14.75" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -9268,7 +9261,7 @@
       <c r="AW67" s="8"/>
       <c r="AX67" s="9"/>
     </row>
-    <row r="68" spans="1:50" ht="14.65" customHeight="1">
+    <row r="68" spans="1:50" ht="14.75" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -9283,10 +9276,8 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="9"/>
-      <c r="O68" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="P68" s="30"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="52"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8"/>
@@ -9322,7 +9313,7 @@
       <c r="AW68" s="8"/>
       <c r="AX68" s="9"/>
     </row>
-    <row r="69" spans="1:50" ht="14.65" customHeight="1">
+    <row r="69" spans="1:50" ht="14.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -9374,7 +9365,7 @@
       <c r="AW69" s="8"/>
       <c r="AX69" s="9"/>
     </row>
-    <row r="70" spans="1:50" ht="14.65" customHeight="1">
+    <row r="70" spans="1:50" ht="14.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -9391,7 +9382,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="22"/>
       <c r="P70" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q70" s="21"/>
       <c r="R70" s="21"/>
@@ -9428,7 +9419,7 @@
       <c r="AW70" s="8"/>
       <c r="AX70" s="9"/>
     </row>
-    <row r="71" spans="1:50" ht="14.65" customHeight="1">
+    <row r="71" spans="1:50" ht="14.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -9445,7 +9436,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="20"/>
       <c r="P71" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q71" s="54"/>
       <c r="R71" s="54"/>
@@ -9482,7 +9473,7 @@
       <c r="AW71" s="8"/>
       <c r="AX71" s="9"/>
     </row>
-    <row r="72" spans="1:50" ht="14.65" customHeight="1">
+    <row r="72" spans="1:50" ht="14.75" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -9499,7 +9490,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="20"/>
       <c r="P72" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q72" s="57"/>
       <c r="R72" s="57"/>
@@ -9536,7 +9527,7 @@
       <c r="AW72" s="8"/>
       <c r="AX72" s="9"/>
     </row>
-    <row r="73" spans="1:50" ht="14.65" customHeight="1">
+    <row r="73" spans="1:50" ht="14.75" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -9588,7 +9579,7 @@
       <c r="AW73" s="8"/>
       <c r="AX73" s="9"/>
     </row>
-    <row r="74" spans="1:50" ht="14.65" customHeight="1">
+    <row r="74" spans="1:50" ht="14.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -9640,7 +9631,7 @@
       <c r="AW74" s="8"/>
       <c r="AX74" s="9"/>
     </row>
-    <row r="75" spans="1:50" ht="14.65" customHeight="1">
+    <row r="75" spans="1:50" ht="14.75" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -9692,7 +9683,7 @@
       <c r="AW75" s="8"/>
       <c r="AX75" s="9"/>
     </row>
-    <row r="76" spans="1:50" ht="14.65" customHeight="1">
+    <row r="76" spans="1:50" ht="14.75" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -9744,7 +9735,7 @@
       <c r="AW76" s="8"/>
       <c r="AX76" s="9"/>
     </row>
-    <row r="77" spans="1:50" ht="14.65" customHeight="1">
+    <row r="77" spans="1:50" ht="14.75" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -9796,7 +9787,7 @@
       <c r="AW77" s="8"/>
       <c r="AX77" s="9"/>
     </row>
-    <row r="78" spans="1:50" ht="14.65" customHeight="1">
+    <row r="78" spans="1:50" ht="14.75" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -9848,7 +9839,7 @@
       <c r="AW78" s="8"/>
       <c r="AX78" s="9"/>
     </row>
-    <row r="79" spans="1:50" ht="14.65" customHeight="1">
+    <row r="79" spans="1:50" ht="14.75" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -9900,7 +9891,7 @@
       <c r="AW79" s="8"/>
       <c r="AX79" s="9"/>
     </row>
-    <row r="80" spans="1:50" ht="14.65" customHeight="1">
+    <row r="80" spans="1:50" ht="14.75" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -9952,7 +9943,7 @@
       <c r="AW80" s="8"/>
       <c r="AX80" s="9"/>
     </row>
-    <row r="81" spans="1:50" ht="14.65" customHeight="1">
+    <row r="81" spans="1:50" ht="14.75" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -10004,7 +9995,7 @@
       <c r="AW81" s="8"/>
       <c r="AX81" s="9"/>
     </row>
-    <row r="82" spans="1:50" ht="14.65" customHeight="1">
+    <row r="82" spans="1:50" ht="14.75" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -10056,7 +10047,7 @@
       <c r="AW82" s="8"/>
       <c r="AX82" s="9"/>
     </row>
-    <row r="83" spans="1:50" ht="14.65" customHeight="1">
+    <row r="83" spans="1:50" ht="14.75" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -10108,7 +10099,7 @@
       <c r="AW83" s="8"/>
       <c r="AX83" s="9"/>
     </row>
-    <row r="84" spans="1:50" ht="14.65" customHeight="1">
+    <row r="84" spans="1:50" ht="14.75" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -10160,7 +10151,7 @@
       <c r="AW84" s="8"/>
       <c r="AX84" s="9"/>
     </row>
-    <row r="85" spans="1:50" ht="14.65" customHeight="1">
+    <row r="85" spans="1:50" ht="14.75" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -10212,7 +10203,7 @@
       <c r="AW85" s="8"/>
       <c r="AX85" s="9"/>
     </row>
-    <row r="86" spans="1:50" ht="14.65" customHeight="1">
+    <row r="86" spans="1:50" ht="14.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -10328,7 +10319,7 @@
       </c>
       <c r="AX86" s="4"/>
     </row>
-    <row r="87" spans="1:50" ht="14.65" customHeight="1">
+    <row r="87" spans="1:50" ht="14.75" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -10380,7 +10371,7 @@
       <c r="AW87" s="13"/>
       <c r="AX87" s="13"/>
     </row>
-    <row r="88" spans="1:50" ht="14.65" customHeight="1">
+    <row r="88" spans="1:50" ht="14.75" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -10432,7 +10423,7 @@
       <c r="AW88" s="13"/>
       <c r="AX88" s="13"/>
     </row>
-    <row r="89" spans="1:50" ht="14.65" customHeight="1">
+    <row r="89" spans="1:50" ht="14.75" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -10484,7 +10475,7 @@
       <c r="AW89" s="13"/>
       <c r="AX89" s="13"/>
     </row>
-    <row r="90" spans="1:50" ht="14.65" customHeight="1">
+    <row r="90" spans="1:50" ht="14.75" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -10536,7 +10527,7 @@
       <c r="AW90" s="13"/>
       <c r="AX90" s="13"/>
     </row>
-    <row r="91" spans="1:50" ht="14.65" customHeight="1">
+    <row r="91" spans="1:50" ht="14.75" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -10588,7 +10579,7 @@
       <c r="AW91" s="13"/>
       <c r="AX91" s="13"/>
     </row>
-    <row r="92" spans="1:50" ht="14.65" customHeight="1">
+    <row r="92" spans="1:50" ht="14.75" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -10640,7 +10631,7 @@
       <c r="AW92" s="13"/>
       <c r="AX92" s="13"/>
     </row>
-    <row r="93" spans="1:50" ht="14.65" customHeight="1">
+    <row r="93" spans="1:50" ht="14.75" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -10692,7 +10683,7 @@
       <c r="AW93" s="13"/>
       <c r="AX93" s="13"/>
     </row>
-    <row r="94" spans="1:50" ht="14.65" customHeight="1">
+    <row r="94" spans="1:50" ht="14.75" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -10744,7 +10735,7 @@
       <c r="AW94" s="13"/>
       <c r="AX94" s="13"/>
     </row>
-    <row r="95" spans="1:50" ht="14.65" customHeight="1">
+    <row r="95" spans="1:50" ht="14.75" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -10796,7 +10787,7 @@
       <c r="AW95" s="13"/>
       <c r="AX95" s="13"/>
     </row>
-    <row r="96" spans="1:50" ht="14.65" customHeight="1">
+    <row r="96" spans="1:50" ht="14.75" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -10848,7 +10839,7 @@
       <c r="AW96" s="13"/>
       <c r="AX96" s="13"/>
     </row>
-    <row r="97" spans="1:50" ht="14.65" customHeight="1">
+    <row r="97" spans="1:50" ht="14.75" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -10900,7 +10891,7 @@
       <c r="AW97" s="13"/>
       <c r="AX97" s="13"/>
     </row>
-    <row r="98" spans="1:50" ht="14.65" customHeight="1">
+    <row r="98" spans="1:50" ht="14.75" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -10952,7 +10943,7 @@
       <c r="AW98" s="13"/>
       <c r="AX98" s="13"/>
     </row>
-    <row r="99" spans="1:50" ht="14.65" customHeight="1">
+    <row r="99" spans="1:50" ht="14.75" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -11004,7 +10995,7 @@
       <c r="AW99" s="13"/>
       <c r="AX99" s="13"/>
     </row>
-    <row r="100" spans="1:50" ht="14.65" customHeight="1">
+    <row r="100" spans="1:50" ht="14.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -11056,7 +11047,7 @@
       <c r="AW100" s="13"/>
       <c r="AX100" s="13"/>
     </row>
-    <row r="101" spans="1:50" ht="14.65" customHeight="1">
+    <row r="101" spans="1:50" ht="14.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -11108,7 +11099,7 @@
       <c r="AW101" s="13"/>
       <c r="AX101" s="13"/>
     </row>
-    <row r="102" spans="1:50" ht="14.65" customHeight="1">
+    <row r="102" spans="1:50" ht="14.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -11160,7 +11151,7 @@
       <c r="AW102" s="13"/>
       <c r="AX102" s="13"/>
     </row>
-    <row r="103" spans="1:50" ht="14.65" customHeight="1">
+    <row r="103" spans="1:50" ht="14.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -11212,7 +11203,7 @@
       <c r="AW103" s="13"/>
       <c r="AX103" s="13"/>
     </row>
-    <row r="104" spans="1:50" ht="14.65" customHeight="1">
+    <row r="104" spans="1:50" ht="14.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -11264,7 +11255,7 @@
       <c r="AW104" s="13"/>
       <c r="AX104" s="13"/>
     </row>
-    <row r="105" spans="1:50" ht="14.65" customHeight="1">
+    <row r="105" spans="1:50" ht="14.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -11316,7 +11307,7 @@
       <c r="AW105" s="13"/>
       <c r="AX105" s="13"/>
     </row>
-    <row r="106" spans="1:50" ht="14.65" customHeight="1">
+    <row r="106" spans="1:50" ht="14.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -11368,7 +11359,7 @@
       <c r="AW106" s="13"/>
       <c r="AX106" s="13"/>
     </row>
-    <row r="107" spans="1:50" ht="14.65" customHeight="1">
+    <row r="107" spans="1:50" ht="14.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -11420,7 +11411,7 @@
       <c r="AW107" s="13"/>
       <c r="AX107" s="13"/>
     </row>
-    <row r="108" spans="1:50" ht="14.65" customHeight="1">
+    <row r="108" spans="1:50" ht="14.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -11472,7 +11463,7 @@
       <c r="AW108" s="13"/>
       <c r="AX108" s="13"/>
     </row>
-    <row r="109" spans="1:50" ht="14.65" customHeight="1">
+    <row r="109" spans="1:50" ht="14.75" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -11524,7 +11515,7 @@
       <c r="AW109" s="13"/>
       <c r="AX109" s="13"/>
     </row>
-    <row r="110" spans="1:50" ht="14.65" customHeight="1">
+    <row r="110" spans="1:50" ht="14.75" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -11576,7 +11567,7 @@
       <c r="AW110" s="13"/>
       <c r="AX110" s="13"/>
     </row>
-    <row r="111" spans="1:50" ht="14.65" customHeight="1">
+    <row r="111" spans="1:50" ht="14.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -11628,7 +11619,7 @@
       <c r="AW111" s="13"/>
       <c r="AX111" s="13"/>
     </row>
-    <row r="112" spans="1:50" ht="14.65" customHeight="1">
+    <row r="112" spans="1:50" ht="14.75" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -11680,7 +11671,7 @@
       <c r="AW112" s="13"/>
       <c r="AX112" s="13"/>
     </row>
-    <row r="113" spans="1:50" ht="14.65" customHeight="1">
+    <row r="113" spans="1:50" ht="14.75" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -11732,7 +11723,7 @@
       <c r="AW113" s="13"/>
       <c r="AX113" s="13"/>
     </row>
-    <row r="114" spans="1:50" ht="14.65" customHeight="1">
+    <row r="114" spans="1:50" ht="14.75" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -11784,7 +11775,7 @@
       <c r="AW114" s="13"/>
       <c r="AX114" s="13"/>
     </row>
-    <row r="115" spans="1:50" ht="14.65" customHeight="1">
+    <row r="115" spans="1:50" ht="14.75" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -11836,7 +11827,7 @@
       <c r="AW115" s="13"/>
       <c r="AX115" s="13"/>
     </row>
-    <row r="116" spans="1:50" ht="14.65" customHeight="1">
+    <row r="116" spans="1:50" ht="14.75" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -11888,7 +11879,7 @@
       <c r="AW116" s="13"/>
       <c r="AX116" s="13"/>
     </row>
-    <row r="117" spans="1:50" ht="14.65" customHeight="1">
+    <row r="117" spans="1:50" ht="14.75" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -11940,7 +11931,7 @@
       <c r="AW117" s="13"/>
       <c r="AX117" s="13"/>
     </row>
-    <row r="118" spans="1:50" ht="14.65" customHeight="1">
+    <row r="118" spans="1:50" ht="14.75" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -11992,7 +11983,7 @@
       <c r="AW118" s="13"/>
       <c r="AX118" s="13"/>
     </row>
-    <row r="119" spans="1:50" ht="14.65" customHeight="1">
+    <row r="119" spans="1:50" ht="14.75" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -12044,7 +12035,7 @@
       <c r="AW119" s="13"/>
       <c r="AX119" s="13"/>
     </row>
-    <row r="120" spans="1:50" ht="14.65" customHeight="1">
+    <row r="120" spans="1:50" ht="14.75" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -12096,7 +12087,7 @@
       <c r="AW120" s="13"/>
       <c r="AX120" s="13"/>
     </row>
-    <row r="121" spans="1:50" ht="14.65" customHeight="1">
+    <row r="121" spans="1:50" ht="14.75" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -12148,7 +12139,7 @@
       <c r="AW121" s="13"/>
       <c r="AX121" s="13"/>
     </row>
-    <row r="122" spans="1:50" ht="14.65" customHeight="1">
+    <row r="122" spans="1:50" ht="14.75" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -12200,7 +12191,7 @@
       <c r="AW122" s="13"/>
       <c r="AX122" s="13"/>
     </row>
-    <row r="123" spans="1:50" ht="14.65" customHeight="1">
+    <row r="123" spans="1:50" ht="14.75" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -12252,7 +12243,7 @@
       <c r="AW123" s="13"/>
       <c r="AX123" s="13"/>
     </row>
-    <row r="124" spans="1:50" ht="14.65" customHeight="1">
+    <row r="124" spans="1:50" ht="14.75" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -12304,7 +12295,7 @@
       <c r="AW124" s="13"/>
       <c r="AX124" s="13"/>
     </row>
-    <row r="125" spans="1:50" ht="14.65" customHeight="1">
+    <row r="125" spans="1:50" ht="14.75" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -12356,7 +12347,7 @@
       <c r="AW125" s="13"/>
       <c r="AX125" s="13"/>
     </row>
-    <row r="126" spans="1:50" ht="14.65" customHeight="1">
+    <row r="126" spans="1:50" ht="14.75" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -12408,7 +12399,7 @@
       <c r="AW126" s="13"/>
       <c r="AX126" s="13"/>
     </row>
-    <row r="127" spans="1:50" ht="14.65" customHeight="1">
+    <row r="127" spans="1:50" ht="14.75" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -12460,7 +12451,7 @@
       <c r="AW127" s="13"/>
       <c r="AX127" s="13"/>
     </row>
-    <row r="128" spans="1:50" ht="14.65" customHeight="1">
+    <row r="128" spans="1:50" ht="14.75" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -12512,7 +12503,7 @@
       <c r="AW128" s="13"/>
       <c r="AX128" s="13"/>
     </row>
-    <row r="129" spans="1:50" ht="14.65" customHeight="1">
+    <row r="129" spans="1:50" ht="14.75" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -12564,7 +12555,7 @@
       <c r="AW129" s="13"/>
       <c r="AX129" s="13"/>
     </row>
-    <row r="130" spans="1:50" ht="14.65" customHeight="1">
+    <row r="130" spans="1:50" ht="14.75" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -12616,7 +12607,7 @@
       <c r="AW130" s="13"/>
       <c r="AX130" s="13"/>
     </row>
-    <row r="131" spans="1:50" ht="14.65" customHeight="1">
+    <row r="131" spans="1:50" ht="14.75" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -12668,7 +12659,7 @@
       <c r="AW131" s="13"/>
       <c r="AX131" s="13"/>
     </row>
-    <row r="132" spans="1:50" ht="14.65" customHeight="1">
+    <row r="132" spans="1:50" ht="14.75" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -12720,7 +12711,7 @@
       <c r="AW132" s="13"/>
       <c r="AX132" s="13"/>
     </row>
-    <row r="133" spans="1:50" ht="14.65" customHeight="1">
+    <row r="133" spans="1:50" ht="14.75" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -12772,7 +12763,7 @@
       <c r="AW133" s="13"/>
       <c r="AX133" s="13"/>
     </row>
-    <row r="134" spans="1:50" ht="14.65" customHeight="1">
+    <row r="134" spans="1:50" ht="14.75" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -12824,7 +12815,7 @@
       <c r="AW134" s="13"/>
       <c r="AX134" s="13"/>
     </row>
-    <row r="135" spans="1:50" ht="14.65" customHeight="1">
+    <row r="135" spans="1:50" ht="14.75" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -12876,7 +12867,7 @@
       <c r="AW135" s="13"/>
       <c r="AX135" s="13"/>
     </row>
-    <row r="136" spans="1:50" ht="14.65" customHeight="1">
+    <row r="136" spans="1:50" ht="14.75" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -12928,7 +12919,7 @@
       <c r="AW136" s="13"/>
       <c r="AX136" s="13"/>
     </row>
-    <row r="137" spans="1:50" ht="14.65" customHeight="1">
+    <row r="137" spans="1:50" ht="14.75" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -12980,7 +12971,7 @@
       <c r="AW137" s="13"/>
       <c r="AX137" s="13"/>
     </row>
-    <row r="138" spans="1:50" ht="14.65" customHeight="1">
+    <row r="138" spans="1:50" ht="14.75" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -13032,7 +13023,7 @@
       <c r="AW138" s="13"/>
       <c r="AX138" s="13"/>
     </row>
-    <row r="139" spans="1:50" ht="14.65" customHeight="1">
+    <row r="139" spans="1:50" ht="14.75" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -13084,7 +13075,7 @@
       <c r="AW139" s="13"/>
       <c r="AX139" s="13"/>
     </row>
-    <row r="140" spans="1:50" ht="14.65" customHeight="1">
+    <row r="140" spans="1:50" ht="14.75" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -13136,7 +13127,7 @@
       <c r="AW140" s="13"/>
       <c r="AX140" s="13"/>
     </row>
-    <row r="141" spans="1:50" ht="14.65" customHeight="1">
+    <row r="141" spans="1:50" ht="14.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -13188,7 +13179,7 @@
       <c r="AW141" s="13"/>
       <c r="AX141" s="13"/>
     </row>
-    <row r="142" spans="1:50" ht="14.65" customHeight="1">
+    <row r="142" spans="1:50" ht="14.75" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -13240,7 +13231,7 @@
       <c r="AW142" s="13"/>
       <c r="AX142" s="13"/>
     </row>
-    <row r="143" spans="1:50" ht="14.65" customHeight="1">
+    <row r="143" spans="1:50" ht="14.75" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -13292,7 +13283,7 @@
       <c r="AW143" s="13"/>
       <c r="AX143" s="13"/>
     </row>
-    <row r="144" spans="1:50" ht="14.65" customHeight="1">
+    <row r="144" spans="1:50" ht="14.75" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -13344,7 +13335,7 @@
       <c r="AW144" s="13"/>
       <c r="AX144" s="13"/>
     </row>
-    <row r="145" spans="1:50" ht="14.65" customHeight="1">
+    <row r="145" spans="1:50" ht="14.75" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -13396,7 +13387,7 @@
       <c r="AW145" s="13"/>
       <c r="AX145" s="13"/>
     </row>
-    <row r="146" spans="1:50" ht="14.65" customHeight="1">
+    <row r="146" spans="1:50" ht="14.75" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -13448,7 +13439,7 @@
       <c r="AW146" s="13"/>
       <c r="AX146" s="13"/>
     </row>
-    <row r="147" spans="1:50" ht="14.65" customHeight="1">
+    <row r="147" spans="1:50" ht="14.75" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -13500,7 +13491,7 @@
       <c r="AW147" s="13"/>
       <c r="AX147" s="13"/>
     </row>
-    <row r="148" spans="1:50" ht="14.65" customHeight="1">
+    <row r="148" spans="1:50" ht="14.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -13552,7 +13543,7 @@
       <c r="AW148" s="13"/>
       <c r="AX148" s="13"/>
     </row>
-    <row r="149" spans="1:50" ht="14.65" customHeight="1">
+    <row r="149" spans="1:50" ht="14.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -13604,7 +13595,7 @@
       <c r="AW149" s="13"/>
       <c r="AX149" s="13"/>
     </row>
-    <row r="150" spans="1:50" ht="14.65" customHeight="1">
+    <row r="150" spans="1:50" ht="14.75" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -13657,47 +13648,16 @@
       <c r="AX150" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="P71:AK71"/>
-    <mergeCell ref="P72:AK72"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="D3:D16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="C3:C16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E3:E16"/>
+  <mergeCells count="72">
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="R1:AW1"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
     <mergeCell ref="L3:L16"/>
     <mergeCell ref="L17:L21"/>
     <mergeCell ref="M3:M24"/>
@@ -13714,23 +13674,53 @@
     <mergeCell ref="F3:F16"/>
     <mergeCell ref="I17:I21"/>
     <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="C3:C16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E3:E16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="P71:AK71"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M25:M27"/>
     <mergeCell ref="M34:M35"/>
     <mergeCell ref="M36:M37"/>
     <mergeCell ref="M38:M39"/>
     <mergeCell ref="M40:M41"/>
     <mergeCell ref="M42:M43"/>
-    <mergeCell ref="R1:AW1"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
     <mergeCell ref="M52:M53"/>
     <mergeCell ref="M54:M55"/>
     <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M50:M51"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
